--- a/Automation_BDD_Framework/src/main/resources/ResultStorage/SISExcelReport.xlsx
+++ b/Automation_BDD_Framework/src/main/resources/ResultStorage/SISExcelReport.xlsx
@@ -39,13 +39,13 @@
     <t>Validate the Craete question in application questions</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>PASSED</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FAILED</t>
   </si>
 </sst>
 </file>
@@ -241,12 +241,12 @@
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
